--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983814.8012626</v>
+        <v>1981271.026595943</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9939864.200464999</v>
+        <v>9939864.200464997</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51111121219661</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645087</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602295</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.1050195542566</v>
       </c>
       <c r="W2" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225825</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072413</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>37.46659811507838</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>36.74813134253802</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>38.84311467117514</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989975</v>
+        <v>60.33996475238155</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>59.80127191868286</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>116.8302600053036</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.6452357812547</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>120.3332554667404</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722638</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417097</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.6816769105183</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695608</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802183941</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238341</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675530995</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>77.93612009725614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.2821160880071</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358024</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460218</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>9.795251606876494</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1208074460236</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057036</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4028,7 +4028,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>26.13627195706031</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609577</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>633.68583388768</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="C2" t="n">
-        <v>633.68583388768</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="D2" t="n">
-        <v>367.4595791412178</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="E2" t="n">
-        <v>101.2333243947556</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637523</v>
+        <v>416.8039352488315</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0851193759198</v>
+        <v>403.8386708483761</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0851193759198</v>
+        <v>137.6124161019135</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701097</v>
+        <v>49.14994660701132</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164413</v>
+        <v>141.9503658164421</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965818</v>
+        <v>293.9792536780741</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173905</v>
+        <v>494.8101216988834</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238171</v>
+        <v>703.5044515053106</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381121</v>
+        <v>888.2736487381129</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341422</v>
+        <v>899.9120886341439</v>
       </c>
       <c r="T2" t="n">
-        <v>899.9120886341422</v>
+        <v>685.4716779720314</v>
       </c>
       <c r="U2" t="n">
-        <v>899.9120886341422</v>
+        <v>685.4716779720314</v>
       </c>
       <c r="V2" t="n">
-        <v>899.9120886341422</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="W2" t="n">
-        <v>633.68583388768</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="X2" t="n">
-        <v>633.68583388768</v>
+        <v>423.7494359980349</v>
       </c>
       <c r="Y2" t="n">
-        <v>633.68583388768</v>
+        <v>423.7494359980349</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.4220115777933</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966663</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668572</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>117.948730774181</v>
+        <v>117.9487307741798</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378353</v>
+        <v>192.5098291378345</v>
       </c>
       <c r="L3" t="n">
-        <v>339.088968453967</v>
+        <v>339.0889684539666</v>
       </c>
       <c r="M3" t="n">
         <v>529.4967785168092</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516404</v>
+        <v>739.352761651641</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271649</v>
+        <v>909.1101923271659</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>905.6052437437241</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158895</v>
+        <v>708.7930347737538</v>
       </c>
       <c r="U3" t="n">
-        <v>998.0268135578058</v>
+        <v>480.6571377126118</v>
       </c>
       <c r="V3" t="n">
-        <v>762.874705326063</v>
+        <v>480.6571377126118</v>
       </c>
       <c r="W3" t="n">
-        <v>508.6373485978614</v>
+        <v>226.4197809844101</v>
       </c>
       <c r="X3" t="n">
-        <v>508.6373485978614</v>
+        <v>226.4197809844101</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.6373485978614</v>
+        <v>189.3004563959879</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="C4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="D4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="E4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="F4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="G4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="H4" t="n">
-        <v>60.32058874074318</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953611</v>
+        <v>126.3272391953612</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735299</v>
+        <v>316.5273535735302</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559543</v>
+        <v>527.4558292559549</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568279</v>
+        <v>738.8035136568288</v>
       </c>
       <c r="O4" t="n">
-        <v>918.001012300523</v>
+        <v>918.0010123005243</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.25596879599</v>
+        <v>925.4341625632146</v>
       </c>
       <c r="S4" t="n">
-        <v>847.4575864395543</v>
+        <v>718.6357802067788</v>
       </c>
       <c r="T4" t="n">
-        <v>847.4575864395543</v>
+        <v>718.6357802067788</v>
       </c>
       <c r="U4" t="n">
-        <v>581.2313316930922</v>
+        <v>657.6863208609388</v>
       </c>
       <c r="V4" t="n">
-        <v>326.5468434872054</v>
+        <v>403.001832655052</v>
       </c>
       <c r="W4" t="n">
-        <v>60.32058874074318</v>
+        <v>403.001832655052</v>
       </c>
       <c r="X4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.32058874074318</v>
+        <v>175.0122817570346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,16 +4565,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.0733899644771</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>437.1372070365702</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>287.0205676242344</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>139.1074740418413</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,7 +4726,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
         <v>316.708372655101</v>
@@ -4738,7 +4738,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813059</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148151</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252075</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.8973771788</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5507,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703053</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703053</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579695</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138354</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703053</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459514</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180445</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180445</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>451.6888124356514</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782883</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003827</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797672</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817739</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919721</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761911</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6233,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,31 +6479,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300688</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300688</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>376.4492432300688</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>209.2531439449487</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>565.7099969556949</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>417.7969033733018</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>270.9069558753914</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7108565902714</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400717</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7676,10 +7676,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7725,13 +7725,13 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438171</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T46" t="n">
-        <v>2420.56280887616</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220358</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014471</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.38592397751</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079493</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935963</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.050829008595002</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.050829008592672</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518672</v>
+        <v>60.60994937518649</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.96589850477798</v>
+        <v>99.96589850477656</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594092</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>36.58048154589929</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.184988818213704e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.013309710965567e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-7.161791793652803e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.255349446890005e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-3.751186662004322e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.508138240629629e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-5.922970376861327e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.15030327141895</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185644</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472975</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126762129</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465729</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.0125967582168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856927</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685146</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260599</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4994612393474</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.31315520054554</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333356</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.269178370228</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404952</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872865.0466981611</v>
+        <v>872865.0466981609</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546541</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546541</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
@@ -26335,25 +26335,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163118</v>
+        <v>679693.2761163127</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389967386</v>
+        <v>373.9475389958833</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491448</v>
+        <v>68959.93717491462</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395603538</v>
+        <v>38.57632395598985</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756965</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077615</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26424,40 +26424,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731872</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731938</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731872</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731842</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731962</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731937</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731893</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731947</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
+      <c r="O4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731942</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731885</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731911</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731962</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731975</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360371</v>
+        <v>63030.89693360375</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414840.9497526786</v>
+        <v>-414840.949752679</v>
       </c>
       <c r="C6" t="n">
-        <v>264553.6207635045</v>
+        <v>264553.6207635053</v>
       </c>
       <c r="D6" t="n">
-        <v>-43654.89760265351</v>
+        <v>-43654.89760265299</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409218041</v>
+        <v>-51757.40201761619</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323651</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323653</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="J6" t="n">
-        <v>386802.8403574513</v>
+        <v>386768.1024320152</v>
       </c>
       <c r="K6" t="n">
-        <v>455724.2012084093</v>
+        <v>455689.463282974</v>
       </c>
       <c r="L6" t="n">
-        <v>360380.1313947957</v>
+        <v>360345.3934693603</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034388</v>
+        <v>323120.7458780032</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323657</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323656</v>
+        <v>455728.0396069298</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726908</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26796,16 +26796,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726908</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357481296787455</v>
+        <v>0.3574812967866592</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025086078</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025086078</v>
+        <v>0.1498878025084309</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985324</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989975</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025086078</v>
+        <v>0.1498878025082035</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168542</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732642</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>340.3649345295148</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>50.64435824064481</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.64723891587835</v>
       </c>
       <c r="W2" t="n">
-        <v>85.67697651841547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072401</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>188.3879399754522</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.9345644347663</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32684488854773</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404792</v>
+        <v>15.11777503404781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704494</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577472</v>
+        <v>225.9187009123907</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381485</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>28.59078801762763</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843216</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.0858648972143</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>100.4154405304715</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684182</v>
+        <v>2.467125758684186</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612439</v>
+        <v>25.26645167612443</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167203</v>
+        <v>95.11386581167217</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611218</v>
+        <v>209.3942148611221</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262233</v>
+        <v>313.8276482262237</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635544</v>
+        <v>389.330948163555</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745542</v>
+        <v>433.2056958745549</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364157</v>
+        <v>440.2154169364164</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734999</v>
+        <v>415.6829351735004</v>
       </c>
       <c r="P2" t="n">
-        <v>354.775768005984</v>
+        <v>354.7757680059846</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731067</v>
+        <v>266.4218267731071</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601586</v>
+        <v>56.21962822601594</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864001</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947345</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32002865475258</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915683</v>
+        <v>45.44835499915689</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745727</v>
+        <v>213.1556797457273</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628355</v>
+        <v>286.6141164628359</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976165</v>
+        <v>334.4651551976169</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235669</v>
+        <v>343.3174526235674</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419439</v>
+        <v>314.0683966419444</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641134</v>
+        <v>252.0675770641137</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592943</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191901</v>
+        <v>81.95756858191912</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209287</v>
+        <v>24.5189533020929</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550968</v>
+        <v>5.320641814550976</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424873</v>
+        <v>0.08684399044424887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508131</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135934</v>
+        <v>9.839281750135948</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753544</v>
+        <v>33.28051536753549</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262485</v>
+        <v>78.24140508262496</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606719</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943998</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840427</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166034</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735311</v>
+        <v>156.4224464735314</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707651</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337631</v>
+        <v>92.66832740337644</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672012</v>
+        <v>49.7598032067202</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410078</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625649</v>
+        <v>4.728489184625656</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862539</v>
+        <v>0.06036369171862548</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,28 +33494,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443552</v>
+        <v>28.34831033443584</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124274</v>
+        <v>93.7377971812432</v>
       </c>
       <c r="L2" t="n">
-        <v>154.6153622021622</v>
+        <v>153.5645331935677</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472815</v>
+        <v>202.8594626472821</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398248</v>
+        <v>210.8023533398255</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518131</v>
+        <v>186.6355527604064</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507145</v>
+        <v>123.542772250715</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865717</v>
+        <v>44.11613689865757</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541539</v>
+        <v>97.84203171541415</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136796</v>
+        <v>75.3142407713683</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829613</v>
+        <v>148.0597366829617</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755982</v>
+        <v>192.3311212755986</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402336</v>
+        <v>211.9757405402341</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974995</v>
+        <v>171.4721521975</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497831</v>
+        <v>118.0931696497835</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327276</v>
+        <v>28.51872577327302</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347891</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458833</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
-        <v>213.482509495832</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875708</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356586</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681925</v>
+        <v>6.506284151682053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333351</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629459</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998946</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317107</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,7 +37874,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998971</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060496</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
